--- a/mcmaster_excel/Aluminum_Ultra-Wide_Flanged_Button_Head_Screws.xlsx
+++ b/mcmaster_excel/Aluminum_Ultra-Wide_Flanged_Button_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.516"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.109"</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.190"</t>
-        </is>
-      </c>
+          <t>Flange</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.180"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1/16"</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>40,000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>94559A151</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$2.74</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>6061 Aluminum</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.516"</t>
+          <t>Dia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.109"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.190"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>94559A154</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>6061 Aluminum</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +614,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>94559A157</t>
+          <t>94559A151</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>$2.74</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +636,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +686,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>94559A162</t>
+          <t>94559A154</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +708,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,12 +758,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>94559A165</t>
+          <t>94559A157</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +780,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -874,7 +790,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.550"</t>
+          <t>0.516"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -884,12 +800,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.190"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -899,7 +815,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -909,22 +825,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>94559A111</t>
+          <t>94559A162</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -936,7 +852,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,7 +862,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.550"</t>
+          <t>0.516"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -956,12 +872,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.190"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -971,7 +887,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5/64"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -981,22 +897,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>94559A114</t>
+          <t>94559A165</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1008,7 +924,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,12 +974,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>94559A118</t>
+          <t>94559A111</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +996,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1125,17 +1041,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>94559A122</t>
+          <t>94559A114</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1197,17 +1113,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>94559A125</t>
+          <t>94559A118</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1140,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1234,7 +1150,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.563"</t>
+          <t>0.550"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1244,7 +1160,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.250"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1274,17 +1190,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>94559A222</t>
+          <t>94559A122</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1296,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1306,7 +1222,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.550"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1316,7 +1232,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.250"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1331,7 +1247,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1341,22 +1257,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>94559A211</t>
+          <t>94559A125</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>11.96</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1368,7 +1284,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1378,7 +1294,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.656"</t>
+          <t>0.563"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1403,7 +1319,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>5/64"</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1413,17 +1329,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>94559A214</t>
+          <t>94559A222</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1356,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1406,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>94559A218</t>
+          <t>94559A211</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1428,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1557,17 +1473,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>94559A225</t>
+          <t>94559A214</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1500,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1594,7 +1510,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.750"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1604,12 +1520,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.300"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.210"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1619,7 +1535,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1634,17 +1550,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>94559A311</t>
+          <t>94559A218</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1656,7 +1572,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1666,7 +1582,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.750"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1676,12 +1592,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.300"</t>
+          <t>0.250"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.210"</t>
+          <t>0.190"</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1691,7 +1607,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1701,22 +1617,22 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>94559A314</t>
+          <t>94559A225</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>13.78</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1728,7 +1644,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1778,12 +1694,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>94559A318</t>
+          <t>94559A311</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1716,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1845,22 +1761,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>94559A422</t>
+          <t>94559A314</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>13.78</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1788,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1917,22 +1833,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>94559A425</t>
+          <t>94559A318</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1944,7 +1860,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1989,17 +1905,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>94559A411</t>
+          <t>94559A422</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1932,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2061,17 +1977,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>94559A414</t>
+          <t>94559A425</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2004,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2054,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>94559A418</t>
+          <t>94559A411</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>14.06</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2076,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2205,22 +2121,22 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>94559A525</t>
+          <t>94559A414</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2232,7 +2148,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2242,7 +2158,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.797"</t>
+          <t>0.750"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2252,7 +2168,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>0.300"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2267,7 +2183,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2277,22 +2193,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>94559A511</t>
+          <t>94559A418</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2304,7 +2220,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2314,7 +2230,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.797"</t>
+          <t>0.750"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2324,7 +2240,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.380"</t>
+          <t>0.300"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2339,7 +2255,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5/32"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2354,12 +2270,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>94559A514</t>
+          <t>94559A525</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2292,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2426,12 +2342,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>94559A518</t>
+          <t>94559A511</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2364,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2498,12 +2414,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>94559A522</t>
+          <t>94559A514</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2436,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2530,7 +2446,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.000"</t>
+          <t>0.797"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2555,7 +2471,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2570,17 +2486,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>94559A611</t>
+          <t>94559A518</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2592,7 +2508,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2602,7 +2518,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.000"</t>
+          <t>0.797"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2627,7 +2543,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/32"</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2642,7 +2558,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>94559A614</t>
+          <t>94559A522</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2652,7 +2568,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2664,7 +2580,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2714,12 +2630,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>94559A618</t>
+          <t>94559A611</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,70 +2652,214 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1.000"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.109"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.380"</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.210"</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>94559A614</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>6061 Aluminum</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.000"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.109"</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.380"</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.210"</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>94559A618</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6061 Aluminum</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>1.000"</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.109"</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.109"</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.380"</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.210"</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Hex</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>3/16"</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>40,000</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>94559A622</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>6061 Aluminum</t>
         </is>
